--- a/files/filterOutliersDatas.xlsx
+++ b/files/filterOutliersDatas.xlsx
@@ -1215,7 +1215,7 @@
         <v>수의계약</v>
       </c>
       <c r="H21" t="str">
-        <v>갈전초등학교 옥상방수공사  건설재해예방 기술지도용역</v>
+        <v>갈전초등학교 옥상방수공사 건설재해예방 기술지도용역</v>
       </c>
       <c r="I21" t="str">
         <v>기술용역</v>
@@ -3575,7 +3575,7 @@
         <v>일반경쟁</v>
       </c>
       <c r="H79" t="str">
-        <v>경부고속도로 직선화 공사(우회도로  3, 4) 건설사업관리용역</v>
+        <v>경부고속도로 직선화 공사(우회도로 3, 4) 건설사업관리용역</v>
       </c>
       <c r="I79" t="str">
         <v>기술용역</v>
@@ -6851,7 +6851,7 @@
         <v>수의계약</v>
       </c>
       <c r="H160" t="str">
-        <v>광주제일고 등  2교(광주자동화설비마이스터고) 조리실 환기설비개선 전기공사 설계용역</v>
+        <v>광주제일고 등 2교(광주자동화설비마이스터고) 조리실 환기설비개선 전기공사 설계용역</v>
       </c>
       <c r="I160" t="str">
         <v>기술용역</v>
@@ -6971,7 +6971,7 @@
         <v>수의계약</v>
       </c>
       <c r="H163" t="str">
-        <v>광주제일고 등  2교(광주자동화설비마이스터고) 조리실 환기설비개선 기계설비공사 설계용역</v>
+        <v>광주제일고 등 2교(광주자동화설비마이스터고) 조리실 환기설비개선 기계설비공사 설계용역</v>
       </c>
       <c r="I163" t="str">
         <v>기술용역</v>
@@ -14795,7 +14795,7 @@
         <v>제한경쟁</v>
       </c>
       <c r="H355" t="str">
-        <v>한국승강기대학교 2025학년도 대학 홍보 &amp; 입시요강  통합 브로셔 제작 업체 선정</v>
+        <v>한국승강기대학교 2025학년도 대학 홍보 &amp; 입시요강 통합 브로셔 제작 업체 선정</v>
       </c>
       <c r="I355" t="str">
         <v>일반용역</v>
@@ -14836,7 +14836,7 @@
         <v>수의계약</v>
       </c>
       <c r="H356" t="str">
-        <v>2024학년도 순천향림중학교 3학년 학생수련활동 위탁용역  계약</v>
+        <v>2024학년도 순천향림중학교 3학년 학생수련활동 위탁용역 계약</v>
       </c>
       <c r="I356" t="str">
         <v>일반용역</v>
@@ -14959,7 +14959,7 @@
         <v>수의계약</v>
       </c>
       <c r="H359" t="str">
-        <v>2024학년도 순천향림중학교 1학년 학생수련활동 위탁용역  계약</v>
+        <v>2024학년도 순천향림중학교 1학년 학생수련활동 위탁용역 계약</v>
       </c>
       <c r="I359" t="str">
         <v>일반용역</v>
@@ -15943,7 +15943,7 @@
         <v>수의계약</v>
       </c>
       <c r="H383" t="str">
-        <v>2024학년도 김해모산초등학교 현장체험학습 및 문화체험여행 차량임차  수의계약 안내공고</v>
+        <v>2024학년도 김해모산초등학교 현장체험학습 및 문화체험여행 차량임차 수의계약 안내공고</v>
       </c>
       <c r="I383" t="str">
         <v>일반용역</v>
@@ -25614,7 +25614,7 @@
         <v>수의계약</v>
       </c>
       <c r="H621" t="str">
-        <v>김해생명과학고 통합형 직업교육 거점학교 개축공사  지정폐기물 처리용역</v>
+        <v>김해생명과학고 통합형 직업교육 거점학교 개축공사 지정폐기물 처리용역</v>
       </c>
       <c r="I621" t="str">
         <v>일반용역</v>
@@ -25655,7 +25655,7 @@
         <v>수의계약</v>
       </c>
       <c r="H622" t="str">
-        <v>김해생명과학고 통합형 직업교육 거점학교 개축공사  가연성 폐기물 처리용역</v>
+        <v>김해생명과학고 통합형 직업교육 거점학교 개축공사 가연성 폐기물 처리용역</v>
       </c>
       <c r="I622" t="str">
         <v>기술용역</v>
@@ -25737,7 +25737,7 @@
         <v>수의계약</v>
       </c>
       <c r="H624" t="str">
-        <v>영운중 다목적강당 및 역도훈련장 증축공사  가연성 건설폐기물 처리용역</v>
+        <v>영운중 다목적강당 및 역도훈련장 증축공사 가연성 건설폐기물 처리용역</v>
       </c>
       <c r="I624" t="str">
         <v>일반용역</v>
@@ -27816,7 +27816,7 @@
         <v>신규</v>
       </c>
       <c r="D675" t="str">
-        <v xml:space="preserve">(사)대한전기협회                                  </v>
+        <v>(사)대한전기협회</v>
       </c>
       <c r="E675" t="str">
         <v>2024년 05월</v>
@@ -31175,7 +31175,7 @@
         <v>제한경쟁</v>
       </c>
       <c r="H757" t="str">
-        <v>청주교육대학교 구내식당(카페 및 매점 포함)  관리위탁업체 선정 모집공고</v>
+        <v>청주교육대학교 구내식당(카페 및 매점 포함) 관리위탁업체 선정 모집공고</v>
       </c>
       <c r="I757" t="str">
         <v>기술용역</v>
@@ -33948,7 +33948,7 @@
         <v>제한경쟁</v>
       </c>
       <c r="H825" t="str">
-        <v>큐브위성 및 위성임무운영  교육 프로그램  위탁대행 용역</v>
+        <v>큐브위성 및 위성임무운영 교육 프로그램 위탁대행 용역</v>
       </c>
       <c r="I825" t="str">
         <v>일반용역</v>
@@ -36487,7 +36487,7 @@
         <v>수의계약</v>
       </c>
       <c r="H887" t="str">
-        <v>망포초 GHP 실외기  소모품 교체 용역</v>
+        <v>망포초 GHP 실외기 소모품 교체 용역</v>
       </c>
       <c r="I887" t="str">
         <v>일반용역</v>
